--- a/output_validation/01_dimension_percentage.xlsx
+++ b/output_validation/01_dimension_percentage.xlsx
@@ -25,6 +25,9 @@
     <t>pop_group</t>
   </si>
   <si>
+    <t>Not in need</t>
+  </si>
+  <si>
     <t>access</t>
   </si>
   <si>
@@ -32,9 +35,6 @@
   </si>
   <si>
     <t>learning condition</t>
-  </si>
-  <si>
-    <t>not falling within the PiN dimensions</t>
   </si>
   <si>
     <t>protected environment</t>
@@ -498,16 +498,16 @@
         <v>19</v>
       </c>
       <c r="C2">
+        <v>0.7106540107189164</v>
+      </c>
+      <c r="D2">
         <v>0.190710457186663</v>
       </c>
-      <c r="D2">
-        <v>0.09531458339445194</v>
-      </c>
       <c r="E2">
+        <v>0.09531458339445195</v>
+      </c>
+      <c r="F2">
         <v>0.00332094869996863</v>
-      </c>
-      <c r="F2">
-        <v>0.7106540107189163</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -521,16 +521,16 @@
         <v>19</v>
       </c>
       <c r="C3">
-        <v>0.467334059886158</v>
+        <v>0.3290499252879424</v>
       </c>
       <c r="D3">
+        <v>0.4673340598861581</v>
+      </c>
+      <c r="E3">
         <v>0.02351335102101421</v>
       </c>
-      <c r="E3">
-        <v>0.1363377937635116</v>
-      </c>
       <c r="F3">
-        <v>0.3290499252879423</v>
+        <v>0.1363377937635117</v>
       </c>
       <c r="G3">
         <v>0.0437648700413738</v>
@@ -544,16 +544,16 @@
         <v>19</v>
       </c>
       <c r="C4">
+        <v>0.451490579415013</v>
+      </c>
+      <c r="D4">
         <v>0.3029933244222449</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>0.02115781288198968</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>0.1668594842488218</v>
-      </c>
-      <c r="F4">
-        <v>0.451490579415013</v>
       </c>
       <c r="G4">
         <v>0.05749879903193069</v>
@@ -567,16 +567,16 @@
         <v>19</v>
       </c>
       <c r="C5">
+        <v>0.2418234127364369</v>
+      </c>
+      <c r="D5">
         <v>0.6520581443625028</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>0.01366262932702547</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>0.07739927371974965</v>
-      </c>
-      <c r="F5">
-        <v>0.2418234127364369</v>
       </c>
       <c r="G5">
         <v>0.01505653985428526</v>
@@ -590,16 +590,16 @@
         <v>19</v>
       </c>
       <c r="C6">
+        <v>0.03115927001577109</v>
+      </c>
+      <c r="D6">
         <v>0.8414055018184412</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>0.006066203886073819</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>0.01720586734079309</v>
-      </c>
-      <c r="F6">
-        <v>0.03115927001577109</v>
       </c>
       <c r="G6">
         <v>0.1041631569389209</v>
@@ -613,16 +613,16 @@
         <v>19</v>
       </c>
       <c r="C7">
+        <v>0.3453075914522154</v>
+      </c>
+      <c r="D7">
         <v>0.5532912991791453</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <v>0.02136518339723263</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>0.01254642344682841</v>
-      </c>
-      <c r="F7">
-        <v>0.3453075914522154</v>
       </c>
       <c r="G7">
         <v>0.06748950252457825</v>
@@ -636,16 +636,16 @@
         <v>19</v>
       </c>
       <c r="C8">
+        <v>0.6672571779664611</v>
+      </c>
+      <c r="D8">
         <v>0.2367263812424759</v>
       </c>
-      <c r="D8">
+      <c r="E8">
         <v>0.06125870664438033</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <v>0.02324762293162015</v>
-      </c>
-      <c r="F8">
-        <v>0.6672571779664611</v>
       </c>
       <c r="G8">
         <v>0.01151011121506259</v>
@@ -659,16 +659,16 @@
         <v>19</v>
       </c>
       <c r="C9">
-        <v>0.4386203619332985</v>
+        <v>0.4300183427740319</v>
       </c>
       <c r="D9">
+        <v>0.4386203619332983</v>
+      </c>
+      <c r="E9">
         <v>0.06879676346048313</v>
       </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
       <c r="F9">
-        <v>0.430018342774032</v>
+        <v>0</v>
       </c>
       <c r="G9">
         <v>0.06256453183218642</v>
@@ -682,19 +682,19 @@
         <v>19</v>
       </c>
       <c r="C10">
+        <v>0.503759477991108</v>
+      </c>
+      <c r="D10">
         <v>0.270105571906739</v>
       </c>
-      <c r="D10">
-        <v>0.06386966279094732</v>
-      </c>
       <c r="E10">
-        <v>0.05680002453431084</v>
+        <v>0.06386966279094733</v>
       </c>
       <c r="F10">
-        <v>0.5037594779911079</v>
+        <v>0.05680002453431085</v>
       </c>
       <c r="G10">
-        <v>0.1054652627768948</v>
+        <v>0.1054652627768949</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -705,16 +705,16 @@
         <v>19</v>
       </c>
       <c r="C11">
-        <v>0.51007849722683</v>
+        <v>0.3042856291533364</v>
       </c>
       <c r="D11">
+        <v>0.5100784972268301</v>
+      </c>
+      <c r="E11">
         <v>0.005852934652471125</v>
       </c>
-      <c r="E11">
+      <c r="F11">
         <v>0.02119727645262988</v>
-      </c>
-      <c r="F11">
-        <v>0.3042856291533363</v>
       </c>
       <c r="G11">
         <v>0.1585856625147326</v>
@@ -728,16 +728,16 @@
         <v>19</v>
       </c>
       <c r="C12">
+        <v>0.5351307850709578</v>
+      </c>
+      <c r="D12">
         <v>0.4023060687369476</v>
       </c>
-      <c r="D12">
-        <v>0.03702069958023029</v>
-      </c>
       <c r="E12">
+        <v>0.03702069958023028</v>
+      </c>
+      <c r="F12">
         <v>0.0255424466118643</v>
-      </c>
-      <c r="F12">
-        <v>0.5351307850709578</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -751,16 +751,16 @@
         <v>19</v>
       </c>
       <c r="C13">
+        <v>0.1606215520728562</v>
+      </c>
+      <c r="D13">
         <v>0.780119179566651</v>
       </c>
-      <c r="D13">
+      <c r="E13">
         <v>0.02185734521386637</v>
       </c>
-      <c r="E13">
+      <c r="F13">
         <v>0.03031483260684526</v>
-      </c>
-      <c r="F13">
-        <v>0.1606215520728562</v>
       </c>
       <c r="G13">
         <v>0.007087090539781185</v>
@@ -810,16 +810,16 @@
         <v>20</v>
       </c>
       <c r="C2">
+        <v>0.3202038642640018</v>
+      </c>
+      <c r="D2">
         <v>0.5997279723345624</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>0.01887686599956911</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>0.009269706648321113</v>
-      </c>
-      <c r="F2">
-        <v>0.3202038642640018</v>
       </c>
       <c r="G2">
         <v>0.05192159075354553</v>
@@ -869,16 +869,16 @@
         <v>27</v>
       </c>
       <c r="C2">
+        <v>0.7355010475254173</v>
+      </c>
+      <c r="D2">
         <v>0.2246645324560284</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>0.02317121176486182</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>0.01006463778453275</v>
-      </c>
-      <c r="F2">
-        <v>0.7355010475254173</v>
       </c>
       <c r="G2">
         <v>0.006598570469159679</v>
@@ -892,16 +892,16 @@
         <v>27</v>
       </c>
       <c r="C3">
+        <v>0.2881114296960966</v>
+      </c>
+      <c r="D3">
         <v>0.6370232145138697</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>0.003355230387105165</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>0.03677214735238916</v>
-      </c>
-      <c r="F3">
-        <v>0.2881114296960966</v>
       </c>
       <c r="G3">
         <v>0.0347379780505395</v>
@@ -915,16 +915,16 @@
         <v>27</v>
       </c>
       <c r="C4">
-        <v>0.3836873839858632</v>
+        <v>0.542864226316311</v>
       </c>
       <c r="D4">
-        <v>0.04386467216042553</v>
+        <v>0.3836873839858633</v>
       </c>
       <c r="E4">
-        <v>0.01396140443210469</v>
+        <v>0.04386467216042554</v>
       </c>
       <c r="F4">
-        <v>0.542864226316311</v>
+        <v>0.0139614044321047</v>
       </c>
       <c r="G4">
         <v>0.01562231310529551</v>
@@ -938,16 +938,16 @@
         <v>27</v>
       </c>
       <c r="C5">
+        <v>0.2957402131124322</v>
+      </c>
+      <c r="D5">
         <v>0.6475361562386643</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>0.02662675445858609</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>0.01034372974580771</v>
-      </c>
-      <c r="F5">
-        <v>0.2957402131124322</v>
       </c>
       <c r="G5">
         <v>0.0197531464445096</v>
@@ -961,16 +961,16 @@
         <v>27</v>
       </c>
       <c r="C6">
+        <v>0.2168995155835067</v>
+      </c>
+      <c r="D6">
         <v>0.7067734103739008</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>0.0479594500977146</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>0.02380464262637988</v>
-      </c>
-      <c r="F6">
-        <v>0.2168995155835067</v>
       </c>
       <c r="G6">
         <v>0.004562981318497784</v>
@@ -984,16 +984,16 @@
         <v>27</v>
       </c>
       <c r="C7">
+        <v>0.7255237755561456</v>
+      </c>
+      <c r="D7">
         <v>0.2031253855922261</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <v>0.03740669864710201</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>0.0339441402045264</v>
-      </c>
-      <c r="F7">
-        <v>0.7255237755561456</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -1007,19 +1007,19 @@
         <v>27</v>
       </c>
       <c r="C8">
+        <v>0.7749837497270198</v>
+      </c>
+      <c r="D8">
         <v>0.2011021168930733</v>
       </c>
-      <c r="D8">
+      <c r="E8">
         <v>0.01010426870802466</v>
       </c>
-      <c r="E8">
-        <v>0.008707118220853689</v>
-      </c>
       <c r="F8">
-        <v>0.7749837497270196</v>
+        <v>0.008707118220853691</v>
       </c>
       <c r="G8">
-        <v>0.005102746451028844</v>
+        <v>0.005102746451028845</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -1030,16 +1030,16 @@
         <v>27</v>
       </c>
       <c r="C9">
+        <v>0.7567306197548092</v>
+      </c>
+      <c r="D9">
         <v>0.1048223149121534</v>
       </c>
-      <c r="D9">
+      <c r="E9">
         <v>0.07569739695083222</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <v>0.06274966838220511</v>
-      </c>
-      <c r="F9">
-        <v>0.7567306197548092</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -1053,16 +1053,16 @@
         <v>27</v>
       </c>
       <c r="C10">
+        <v>0.7815722567773472</v>
+      </c>
+      <c r="D10">
         <v>0.2048177817451928</v>
       </c>
-      <c r="D10">
+      <c r="E10">
         <v>0.0136099614774599</v>
       </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
       <c r="F10">
-        <v>0.7815722567773472</v>
+        <v>0</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -1076,16 +1076,16 @@
         <v>27</v>
       </c>
       <c r="C11">
+        <v>0.7738342948998559</v>
+      </c>
+      <c r="D11">
         <v>0.1046527264059715</v>
       </c>
-      <c r="D11">
+      <c r="E11">
         <v>0.03543814744568882</v>
       </c>
-      <c r="E11">
+      <c r="F11">
         <v>0.0788805680596739</v>
-      </c>
-      <c r="F11">
-        <v>0.7738342948998559</v>
       </c>
       <c r="G11">
         <v>0.007194263188809723</v>
@@ -1099,16 +1099,16 @@
         <v>27</v>
       </c>
       <c r="C12">
+        <v>0.6759834838293406</v>
+      </c>
+      <c r="D12">
         <v>0.1111364861551428</v>
       </c>
-      <c r="D12">
+      <c r="E12">
         <v>0.07403526563460644</v>
       </c>
-      <c r="E12">
+      <c r="F12">
         <v>0.04505024459947984</v>
-      </c>
-      <c r="F12">
-        <v>0.6759834838293406</v>
       </c>
       <c r="G12">
         <v>0.0937945197814303</v>
@@ -1122,16 +1122,16 @@
         <v>27</v>
       </c>
       <c r="C13">
-        <v>0.4037508980516129</v>
+        <v>0.4619138320502865</v>
       </c>
       <c r="D13">
+        <v>0.403750898051613</v>
+      </c>
+      <c r="E13">
         <v>0.01966706479867863</v>
       </c>
-      <c r="E13">
-        <v>0.07811591978181061</v>
-      </c>
       <c r="F13">
-        <v>0.4619138320502864</v>
+        <v>0.07811591978181062</v>
       </c>
       <c r="G13">
         <v>0.03655228531761142</v>
@@ -1145,19 +1145,19 @@
         <v>27</v>
       </c>
       <c r="C14">
-        <v>0.2580592382461158</v>
+        <v>0.6577904324554799</v>
       </c>
       <c r="D14">
-        <v>0.07780282150174836</v>
+        <v>0.2580592382461159</v>
       </c>
       <c r="E14">
-        <v>0.002059391714946342</v>
+        <v>0.07780282150174837</v>
       </c>
       <c r="F14">
-        <v>0.6577904324554797</v>
+        <v>0.002059391714946343</v>
       </c>
       <c r="G14">
-        <v>0.004288116081709647</v>
+        <v>0.004288116081709648</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -1168,16 +1168,16 @@
         <v>27</v>
       </c>
       <c r="C15">
+        <v>0.8174822877535954</v>
+      </c>
+      <c r="D15">
         <v>0.07499063577569208</v>
       </c>
-      <c r="D15">
+      <c r="E15">
         <v>0.04406802745667497</v>
       </c>
-      <c r="E15">
+      <c r="F15">
         <v>0.06345904901403755</v>
-      </c>
-      <c r="F15">
-        <v>0.8174822877535954</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -1191,19 +1191,19 @@
         <v>27</v>
       </c>
       <c r="C16">
+        <v>0.538121125714962</v>
+      </c>
+      <c r="D16">
         <v>0.3438485809116489</v>
       </c>
-      <c r="D16">
+      <c r="E16">
         <v>0.05173825925298021</v>
       </c>
-      <c r="E16">
-        <v>0.05389118409563316</v>
-      </c>
       <c r="F16">
-        <v>0.5381211257149618</v>
+        <v>0.05389118409563317</v>
       </c>
       <c r="G16">
-        <v>0.01240085002477573</v>
+        <v>0.01240085002477574</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -1214,16 +1214,16 @@
         <v>27</v>
       </c>
       <c r="C17">
+        <v>0.8548534137558078</v>
+      </c>
+      <c r="D17">
         <v>0.1094267861545242</v>
       </c>
-      <c r="D17">
+      <c r="E17">
         <v>0.03571980008966798</v>
       </c>
-      <c r="E17">
-        <v>0</v>
-      </c>
       <c r="F17">
-        <v>0.8548534137558078</v>
+        <v>0</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1237,16 +1237,16 @@
         <v>27</v>
       </c>
       <c r="C18">
+        <v>0.9248139239710328</v>
+      </c>
+      <c r="D18">
         <v>0.03634751776327397</v>
       </c>
-      <c r="D18">
+      <c r="E18">
         <v>0.03292999288485467</v>
       </c>
-      <c r="E18">
-        <v>0</v>
-      </c>
       <c r="F18">
-        <v>0.9248139239710328</v>
+        <v>0</v>
       </c>
       <c r="G18">
         <v>0.005908565380838581</v>
@@ -1260,16 +1260,16 @@
         <v>27</v>
       </c>
       <c r="C19">
+        <v>0.87123704802994</v>
+      </c>
+      <c r="D19">
         <v>0.08039684079360003</v>
       </c>
-      <c r="D19">
+      <c r="E19">
         <v>0.04347052377995093</v>
       </c>
-      <c r="E19">
+      <c r="F19">
         <v>0.004895587396509143</v>
-      </c>
-      <c r="F19">
-        <v>0.87123704802994</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1319,16 +1319,16 @@
         <v>28</v>
       </c>
       <c r="C2">
+        <v>0.5993405930558748</v>
+      </c>
+      <c r="D2">
         <v>0.3461159896987495</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>0.03700134904572487</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>0.01754206819965072</v>
-      </c>
-      <c r="F2">
-        <v>0.5993405930558748</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -1342,16 +1342,16 @@
         <v>28</v>
       </c>
       <c r="C3">
+        <v>0.1643234671516556</v>
+      </c>
+      <c r="D3">
         <v>0.5363990822578679</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>0.01688281685020779</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>0.1905420565106229</v>
-      </c>
-      <c r="F3">
-        <v>0.1643234671516556</v>
       </c>
       <c r="G3">
         <v>0.09185257722964593</v>
@@ -1365,16 +1365,16 @@
         <v>28</v>
       </c>
       <c r="C4">
+        <v>0.4917716660792544</v>
+      </c>
+      <c r="D4">
         <v>0.4861326132088599</v>
       </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
       <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
         <v>0.01567743048028169</v>
-      </c>
-      <c r="F4">
-        <v>0.4917716660792544</v>
       </c>
       <c r="G4">
         <v>0.006418290231603985</v>
@@ -1388,16 +1388,16 @@
         <v>28</v>
       </c>
       <c r="C5">
+        <v>0.4068563174242846</v>
+      </c>
+      <c r="D5">
         <v>0.5296564849408226</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>0.03816465636136621</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>0.01414738013903636</v>
-      </c>
-      <c r="F5">
-        <v>0.4068563174242846</v>
       </c>
       <c r="G5">
         <v>0.01117516113449035</v>
@@ -1411,16 +1411,16 @@
         <v>28</v>
       </c>
       <c r="C6">
+        <v>0.07562392814612101</v>
+      </c>
+      <c r="D6">
         <v>0.9193078839006363</v>
       </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>0.005068187953242716</v>
-      </c>
-      <c r="F6">
-        <v>0.07562392814612101</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -1434,16 +1434,16 @@
         <v>28</v>
       </c>
       <c r="C7">
+        <v>0.5497172552716943</v>
+      </c>
+      <c r="D7">
         <v>0.3892670239583827</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <v>0.06101572076992296</v>
       </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
       <c r="F7">
-        <v>0.5497172552716943</v>
+        <v>0</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -1457,16 +1457,16 @@
         <v>28</v>
       </c>
       <c r="C8">
+        <v>0.4732055462978784</v>
+      </c>
+      <c r="D8">
         <v>0.4160086106878902</v>
       </c>
-      <c r="D8">
+      <c r="E8">
         <v>0.0432878883621454</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <v>0.06749795465208604</v>
-      </c>
-      <c r="F8">
-        <v>0.4732055462978784</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -1480,16 +1480,16 @@
         <v>28</v>
       </c>
       <c r="C9">
+        <v>0.2802404301971403</v>
+      </c>
+      <c r="D9">
         <v>0.4304411167262168</v>
       </c>
-      <c r="D9">
+      <c r="E9">
         <v>0.08493390733218803</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <v>0.1063556480784028</v>
-      </c>
-      <c r="F9">
-        <v>0.2802404301971403</v>
       </c>
       <c r="G9">
         <v>0.09802889766605188</v>
@@ -1503,16 +1503,16 @@
         <v>28</v>
       </c>
       <c r="C10">
+        <v>0.5337870602633682</v>
+      </c>
+      <c r="D10">
         <v>0.2525549026166085</v>
       </c>
-      <c r="D10">
+      <c r="E10">
         <v>0.1393912851416745</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <v>0.05695902476239229</v>
-      </c>
-      <c r="F10">
-        <v>0.5337870602633682</v>
       </c>
       <c r="G10">
         <v>0.0173077272159565</v>
@@ -1526,16 +1526,16 @@
         <v>28</v>
       </c>
       <c r="C11">
+        <v>0.3287750150324628</v>
+      </c>
+      <c r="D11">
         <v>0.5242081101445487</v>
       </c>
-      <c r="D11">
+      <c r="E11">
         <v>0.04803177498858425</v>
       </c>
-      <c r="E11">
+      <c r="F11">
         <v>0.05975679914582763</v>
-      </c>
-      <c r="F11">
-        <v>0.3287750150324628</v>
       </c>
       <c r="G11">
         <v>0.03922830068857657</v>
@@ -1549,16 +1549,16 @@
         <v>28</v>
       </c>
       <c r="C12">
+        <v>0.5928738109452726</v>
+      </c>
+      <c r="D12">
         <v>0.1980015235867318</v>
       </c>
-      <c r="D12">
+      <c r="E12">
         <v>0.2006406549106493</v>
       </c>
-      <c r="E12">
+      <c r="F12">
         <v>0.008484010557346435</v>
-      </c>
-      <c r="F12">
-        <v>0.5928738109452726</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -1572,19 +1572,19 @@
         <v>28</v>
       </c>
       <c r="C13">
+        <v>0.3666693062507451</v>
+      </c>
+      <c r="D13">
         <v>0.4897918112166131</v>
       </c>
-      <c r="D13">
-        <v>0.06306542781760052</v>
-      </c>
       <c r="E13">
-        <v>0.02701275396855352</v>
+        <v>0.06306542781760054</v>
       </c>
       <c r="F13">
-        <v>0.3666693062507451</v>
+        <v>0.02701275396855353</v>
       </c>
       <c r="G13">
-        <v>0.05346070074648779</v>
+        <v>0.0534607007464878</v>
       </c>
     </row>
   </sheetData>

--- a/output_validation/01_dimension_percentage.xlsx
+++ b/output_validation/01_dimension_percentage.xlsx
@@ -498,16 +498,16 @@
         <v>19</v>
       </c>
       <c r="C2">
-        <v>0.7106540107189164</v>
+        <v>0.6986378325573731</v>
       </c>
       <c r="D2">
-        <v>0.190710457186663</v>
+        <v>0.1309296905708729</v>
       </c>
       <c r="E2">
-        <v>0.09531458339445195</v>
+        <v>0.1704324768717539</v>
       </c>
       <c r="F2">
-        <v>0.00332094869996863</v>
+        <v>0</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -521,19 +521,19 @@
         <v>19</v>
       </c>
       <c r="C3">
-        <v>0.3290499252879424</v>
+        <v>0.4671520190982254</v>
       </c>
       <c r="D3">
-        <v>0.4673340598861581</v>
+        <v>0.3692581209488021</v>
       </c>
       <c r="E3">
-        <v>0.02351335102101421</v>
+        <v>0.06832528739111721</v>
       </c>
       <c r="F3">
-        <v>0.1363377937635117</v>
+        <v>0.06704002393403312</v>
       </c>
       <c r="G3">
-        <v>0.0437648700413738</v>
+        <v>0.02822454862782223</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -544,19 +544,19 @@
         <v>19</v>
       </c>
       <c r="C4">
-        <v>0.451490579415013</v>
+        <v>0.5505005570185084</v>
       </c>
       <c r="D4">
-        <v>0.3029933244222449</v>
+        <v>0.1636624726594404</v>
       </c>
       <c r="E4">
-        <v>0.02115781288198968</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>0.1668594842488218</v>
+        <v>0.2858369703220512</v>
       </c>
       <c r="G4">
-        <v>0.05749879903193069</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -567,19 +567,19 @@
         <v>19</v>
       </c>
       <c r="C5">
-        <v>0.2418234127364369</v>
+        <v>0.2362255938995011</v>
       </c>
       <c r="D5">
-        <v>0.6520581443625028</v>
+        <v>0.6561160400916122</v>
       </c>
       <c r="E5">
-        <v>0.01366262932702547</v>
+        <v>0.04001385067790107</v>
       </c>
       <c r="F5">
-        <v>0.07739927371974965</v>
+        <v>0.06764451533098564</v>
       </c>
       <c r="G5">
-        <v>0.01505653985428526</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -590,19 +590,19 @@
         <v>19</v>
       </c>
       <c r="C6">
-        <v>0.03115927001577109</v>
+        <v>0.06043364741733242</v>
       </c>
       <c r="D6">
-        <v>0.8414055018184412</v>
+        <v>0.8583608304788509</v>
       </c>
       <c r="E6">
-        <v>0.006066203886073819</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>0.01720586734079309</v>
+        <v>0</v>
       </c>
       <c r="G6">
-        <v>0.1041631569389209</v>
+        <v>0.08120552210381662</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -613,19 +613,19 @@
         <v>19</v>
       </c>
       <c r="C7">
-        <v>0.3453075914522154</v>
+        <v>0.165981388455387</v>
       </c>
       <c r="D7">
-        <v>0.5532912991791453</v>
+        <v>0.6465252877086792</v>
       </c>
       <c r="E7">
-        <v>0.02136518339723263</v>
+        <v>0.09069223491886851</v>
       </c>
       <c r="F7">
-        <v>0.01254642344682841</v>
+        <v>0</v>
       </c>
       <c r="G7">
-        <v>0.06748950252457825</v>
+        <v>0.09680108891706536</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -636,19 +636,19 @@
         <v>19</v>
       </c>
       <c r="C8">
-        <v>0.6672571779664611</v>
+        <v>0.8382017667306252</v>
       </c>
       <c r="D8">
-        <v>0.2367263812424759</v>
+        <v>0.1230474506907969</v>
       </c>
       <c r="E8">
-        <v>0.06125870664438033</v>
+        <v>0.03875078257857791</v>
       </c>
       <c r="F8">
-        <v>0.02324762293162015</v>
+        <v>0</v>
       </c>
       <c r="G8">
-        <v>0.01151011121506259</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -659,19 +659,19 @@
         <v>19</v>
       </c>
       <c r="C9">
-        <v>0.4300183427740319</v>
+        <v>0.3348719340637654</v>
       </c>
       <c r="D9">
-        <v>0.4386203619332983</v>
+        <v>0.5078237190080316</v>
       </c>
       <c r="E9">
-        <v>0.06879676346048313</v>
+        <v>0.1573043469282031</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0.06256453183218642</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -682,19 +682,19 @@
         <v>19</v>
       </c>
       <c r="C10">
-        <v>0.503759477991108</v>
+        <v>0.5046915229780158</v>
       </c>
       <c r="D10">
-        <v>0.270105571906739</v>
+        <v>0.3583226586368377</v>
       </c>
       <c r="E10">
-        <v>0.06386966279094733</v>
+        <v>0.08579402118031276</v>
       </c>
       <c r="F10">
-        <v>0.05680002453431085</v>
+        <v>0</v>
       </c>
       <c r="G10">
-        <v>0.1054652627768949</v>
+        <v>0.05119179720483363</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -705,19 +705,19 @@
         <v>19</v>
       </c>
       <c r="C11">
-        <v>0.3042856291533364</v>
+        <v>0.3709017435176196</v>
       </c>
       <c r="D11">
-        <v>0.5100784972268301</v>
+        <v>0.4558409666193095</v>
       </c>
       <c r="E11">
-        <v>0.005852934652471125</v>
+        <v>0</v>
       </c>
       <c r="F11">
-        <v>0.02119727645262988</v>
+        <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1585856625147326</v>
+        <v>0.173257289863071</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -728,16 +728,16 @@
         <v>19</v>
       </c>
       <c r="C12">
-        <v>0.5351307850709578</v>
+        <v>0.4017572619326708</v>
       </c>
       <c r="D12">
-        <v>0.4023060687369476</v>
+        <v>0.5532285436928597</v>
       </c>
       <c r="E12">
-        <v>0.03702069958023028</v>
+        <v>0</v>
       </c>
       <c r="F12">
-        <v>0.0255424466118643</v>
+        <v>0.04501419437446964</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -751,19 +751,19 @@
         <v>19</v>
       </c>
       <c r="C13">
-        <v>0.1606215520728562</v>
+        <v>0.07542672232317281</v>
       </c>
       <c r="D13">
-        <v>0.780119179566651</v>
+        <v>0.814760471020971</v>
       </c>
       <c r="E13">
-        <v>0.02185734521386637</v>
+        <v>0</v>
       </c>
       <c r="F13">
-        <v>0.03031483260684526</v>
+        <v>0.05423983172918882</v>
       </c>
       <c r="G13">
-        <v>0.007087090539781185</v>
+        <v>0.05557297492666727</v>
       </c>
     </row>
   </sheetData>
@@ -810,19 +810,19 @@
         <v>20</v>
       </c>
       <c r="C2">
-        <v>0.3202038642640018</v>
+        <v>0.357012769940906</v>
       </c>
       <c r="D2">
-        <v>0.5997279723345624</v>
+        <v>0.5302458965458244</v>
       </c>
       <c r="E2">
-        <v>0.01887686599956911</v>
+        <v>0.04123246468014508</v>
       </c>
       <c r="F2">
-        <v>0.009269706648321113</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>0.05192159075354553</v>
+        <v>0.07150886883312446</v>
       </c>
     </row>
   </sheetData>
@@ -869,19 +869,19 @@
         <v>27</v>
       </c>
       <c r="C2">
-        <v>0.7355010475254173</v>
+        <v>0.9140697865545047</v>
       </c>
       <c r="D2">
-        <v>0.2246645324560284</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>0.02317121176486182</v>
+        <v>0.08593021344549534</v>
       </c>
       <c r="F2">
-        <v>0.01006463778453275</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>0.006598570469159679</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -892,19 +892,19 @@
         <v>27</v>
       </c>
       <c r="C3">
-        <v>0.2881114296960966</v>
+        <v>0.2953518416036127</v>
       </c>
       <c r="D3">
-        <v>0.6370232145138697</v>
+        <v>0.6498410644134353</v>
       </c>
       <c r="E3">
-        <v>0.003355230387105165</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>0.03677214735238916</v>
+        <v>0.02427884553660607</v>
       </c>
       <c r="G3">
-        <v>0.0347379780505395</v>
+        <v>0.03052824844634616</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -915,19 +915,19 @@
         <v>27</v>
       </c>
       <c r="C4">
-        <v>0.542864226316311</v>
+        <v>0.6703202566789164</v>
       </c>
       <c r="D4">
-        <v>0.3836873839858633</v>
+        <v>0.3296797433210837</v>
       </c>
       <c r="E4">
-        <v>0.04386467216042554</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>0.0139614044321047</v>
+        <v>0</v>
       </c>
       <c r="G4">
-        <v>0.01562231310529551</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -938,19 +938,19 @@
         <v>27</v>
       </c>
       <c r="C5">
-        <v>0.2957402131124322</v>
+        <v>0.125776487776275</v>
       </c>
       <c r="D5">
-        <v>0.6475361562386643</v>
+        <v>0.7550424483963755</v>
       </c>
       <c r="E5">
-        <v>0.02662675445858609</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>0.01034372974580771</v>
+        <v>0</v>
       </c>
       <c r="G5">
-        <v>0.0197531464445096</v>
+        <v>0.1191810638273496</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -961,19 +961,19 @@
         <v>27</v>
       </c>
       <c r="C6">
-        <v>0.2168995155835067</v>
+        <v>0.1225075068689798</v>
       </c>
       <c r="D6">
-        <v>0.7067734103739008</v>
+        <v>0.7353966935648635</v>
       </c>
       <c r="E6">
-        <v>0.0479594500977146</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>0.02380464262637988</v>
+        <v>0.1420957995661567</v>
       </c>
       <c r="G6">
-        <v>0.004562981318497784</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -984,16 +984,16 @@
         <v>27</v>
       </c>
       <c r="C7">
-        <v>0.7255237755561456</v>
+        <v>0.7256068481815973</v>
       </c>
       <c r="D7">
-        <v>0.2031253855922261</v>
+        <v>0.1466791514962011</v>
       </c>
       <c r="E7">
-        <v>0.03740669864710201</v>
+        <v>0.05978222136606444</v>
       </c>
       <c r="F7">
-        <v>0.0339441402045264</v>
+        <v>0.06793177895613718</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -1007,19 +1007,19 @@
         <v>27</v>
       </c>
       <c r="C8">
-        <v>0.7749837497270198</v>
+        <v>0.7924190383905769</v>
       </c>
       <c r="D8">
-        <v>0.2011021168930733</v>
+        <v>0.1591963593292097</v>
       </c>
       <c r="E8">
-        <v>0.01010426870802466</v>
+        <v>0</v>
       </c>
       <c r="F8">
-        <v>0.008707118220853691</v>
+        <v>0</v>
       </c>
       <c r="G8">
-        <v>0.005102746451028845</v>
+        <v>0.04838460228021334</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -1030,16 +1030,16 @@
         <v>27</v>
       </c>
       <c r="C9">
-        <v>0.7567306197548092</v>
+        <v>1</v>
       </c>
       <c r="D9">
-        <v>0.1048223149121534</v>
+        <v>0</v>
       </c>
       <c r="E9">
-        <v>0.07569739695083222</v>
+        <v>0</v>
       </c>
       <c r="F9">
-        <v>0.06274966838220511</v>
+        <v>0</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>27</v>
       </c>
       <c r="C10">
-        <v>0.7815722567773472</v>
+        <v>0.6777018473264718</v>
       </c>
       <c r="D10">
-        <v>0.2048177817451928</v>
+        <v>0.3222981526735283</v>
       </c>
       <c r="E10">
-        <v>0.0136099614774599</v>
+        <v>0</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -1076,19 +1076,19 @@
         <v>27</v>
       </c>
       <c r="C11">
-        <v>0.7738342948998559</v>
+        <v>0.8620064665872665</v>
       </c>
       <c r="D11">
-        <v>0.1046527264059715</v>
+        <v>0.03800535233232218</v>
       </c>
       <c r="E11">
-        <v>0.03543814744568882</v>
+        <v>0</v>
       </c>
       <c r="F11">
-        <v>0.0788805680596739</v>
+        <v>0.0999881810804112</v>
       </c>
       <c r="G11">
-        <v>0.007194263188809723</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -1099,19 +1099,19 @@
         <v>27</v>
       </c>
       <c r="C12">
-        <v>0.6759834838293406</v>
+        <v>0.7715321758342893</v>
       </c>
       <c r="D12">
-        <v>0.1111364861551428</v>
+        <v>0.1457899511717343</v>
       </c>
       <c r="E12">
-        <v>0.07403526563460644</v>
+        <v>0.08267787299397636</v>
       </c>
       <c r="F12">
-        <v>0.04505024459947984</v>
+        <v>0</v>
       </c>
       <c r="G12">
-        <v>0.0937945197814303</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -1122,19 +1122,19 @@
         <v>27</v>
       </c>
       <c r="C13">
-        <v>0.4619138320502865</v>
+        <v>0.2976141001389314</v>
       </c>
       <c r="D13">
-        <v>0.403750898051613</v>
+        <v>0.5415142694385218</v>
       </c>
       <c r="E13">
-        <v>0.01966706479867863</v>
+        <v>0.03738545073187088</v>
       </c>
       <c r="F13">
-        <v>0.07811591978181062</v>
+        <v>0.07872141083747253</v>
       </c>
       <c r="G13">
-        <v>0.03655228531761142</v>
+        <v>0.0447647688532033</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -1145,19 +1145,19 @@
         <v>27</v>
       </c>
       <c r="C14">
-        <v>0.6577904324554799</v>
+        <v>0.5554147187463672</v>
       </c>
       <c r="D14">
-        <v>0.2580592382461159</v>
+        <v>0.4041575688726384</v>
       </c>
       <c r="E14">
-        <v>0.07780282150174837</v>
+        <v>0.04042771238099447</v>
       </c>
       <c r="F14">
-        <v>0.002059391714946343</v>
+        <v>0</v>
       </c>
       <c r="G14">
-        <v>0.004288116081709648</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -1168,16 +1168,16 @@
         <v>27</v>
       </c>
       <c r="C15">
-        <v>0.8174822877535954</v>
+        <v>0.8804077503986378</v>
       </c>
       <c r="D15">
-        <v>0.07499063577569208</v>
+        <v>0.07767477008235714</v>
       </c>
       <c r="E15">
-        <v>0.04406802745667497</v>
+        <v>0</v>
       </c>
       <c r="F15">
-        <v>0.06345904901403755</v>
+        <v>0.04191747951900504</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -1191,19 +1191,19 @@
         <v>27</v>
       </c>
       <c r="C16">
-        <v>0.538121125714962</v>
+        <v>0.6968263533264397</v>
       </c>
       <c r="D16">
-        <v>0.3438485809116489</v>
+        <v>0.1713318713277054</v>
       </c>
       <c r="E16">
-        <v>0.05173825925298021</v>
+        <v>0</v>
       </c>
       <c r="F16">
-        <v>0.05389118409563317</v>
+        <v>0.1318417753458549</v>
       </c>
       <c r="G16">
-        <v>0.01240085002477574</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -1214,13 +1214,13 @@
         <v>27</v>
       </c>
       <c r="C17">
-        <v>0.8548534137558078</v>
+        <v>0.9310762092269746</v>
       </c>
       <c r="D17">
-        <v>0.1094267861545242</v>
+        <v>0.06892379077302539</v>
       </c>
       <c r="E17">
-        <v>0.03571980008966798</v>
+        <v>0</v>
       </c>
       <c r="F17">
         <v>0</v>
@@ -1237,19 +1237,19 @@
         <v>27</v>
       </c>
       <c r="C18">
-        <v>0.9248139239710328</v>
+        <v>1</v>
       </c>
       <c r="D18">
-        <v>0.03634751776327397</v>
+        <v>0</v>
       </c>
       <c r="E18">
-        <v>0.03292999288485467</v>
+        <v>0</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>0.005908565380838581</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -1260,16 +1260,16 @@
         <v>27</v>
       </c>
       <c r="C19">
-        <v>0.87123704802994</v>
+        <v>0.7262436922562635</v>
       </c>
       <c r="D19">
-        <v>0.08039684079360003</v>
+        <v>0.2737563077437364</v>
       </c>
       <c r="E19">
-        <v>0.04347052377995093</v>
+        <v>0</v>
       </c>
       <c r="F19">
-        <v>0.004895587396509143</v>
+        <v>0</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1319,16 +1319,16 @@
         <v>28</v>
       </c>
       <c r="C2">
-        <v>0.5993405930558748</v>
+        <v>0.5697812081955935</v>
       </c>
       <c r="D2">
-        <v>0.3461159896987495</v>
+        <v>0.4302187918044066</v>
       </c>
       <c r="E2">
-        <v>0.03700134904572487</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>0.01754206819965072</v>
+        <v>0</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -1342,19 +1342,19 @@
         <v>28</v>
       </c>
       <c r="C3">
-        <v>0.1643234671516556</v>
+        <v>0.112582448398471</v>
       </c>
       <c r="D3">
-        <v>0.5363990822578679</v>
+        <v>0.6702858318735401</v>
       </c>
       <c r="E3">
-        <v>0.01688281685020779</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>0.1905420565106229</v>
+        <v>0.1882078456420022</v>
       </c>
       <c r="G3">
-        <v>0.09185257722964593</v>
+        <v>0.02892387408598686</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -1365,19 +1365,19 @@
         <v>28</v>
       </c>
       <c r="C4">
-        <v>0.4917716660792544</v>
+        <v>0.7742993638732156</v>
       </c>
       <c r="D4">
-        <v>0.4861326132088599</v>
+        <v>0.1103130534377048</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.01567743048028169</v>
+        <v>0.1153875826890797</v>
       </c>
       <c r="G4">
-        <v>0.006418290231603985</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -1388,19 +1388,19 @@
         <v>28</v>
       </c>
       <c r="C5">
-        <v>0.4068563174242846</v>
+        <v>0.4535007307593025</v>
       </c>
       <c r="D5">
-        <v>0.5296564849408226</v>
+        <v>0.4693465799928333</v>
       </c>
       <c r="E5">
-        <v>0.03816465636136621</v>
+        <v>0.03657992377119496</v>
       </c>
       <c r="F5">
-        <v>0.01414738013903636</v>
+        <v>0</v>
       </c>
       <c r="G5">
-        <v>0.01117516113449035</v>
+        <v>0.0405727654766691</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -1411,16 +1411,16 @@
         <v>28</v>
       </c>
       <c r="C6">
-        <v>0.07562392814612101</v>
+        <v>0.05932678460569384</v>
       </c>
       <c r="D6">
-        <v>0.9193078839006363</v>
+        <v>0.9406732153943062</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.005068187953242716</v>
+        <v>0</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -1434,13 +1434,13 @@
         <v>28</v>
       </c>
       <c r="C7">
-        <v>0.5497172552716943</v>
+        <v>0.4111018004330445</v>
       </c>
       <c r="D7">
-        <v>0.3892670239583827</v>
+        <v>0.2813629377676347</v>
       </c>
       <c r="E7">
-        <v>0.06101572076992296</v>
+        <v>0.3075352617993207</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -1457,16 +1457,16 @@
         <v>28</v>
       </c>
       <c r="C8">
-        <v>0.4732055462978784</v>
+        <v>0.6174902311128901</v>
       </c>
       <c r="D8">
-        <v>0.4160086106878902</v>
+        <v>0.2116649462009311</v>
       </c>
       <c r="E8">
-        <v>0.0432878883621454</v>
+        <v>0</v>
       </c>
       <c r="F8">
-        <v>0.06749795465208604</v>
+        <v>0.1708448226861786</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -1480,19 +1480,19 @@
         <v>28</v>
       </c>
       <c r="C9">
-        <v>0.2802404301971403</v>
+        <v>0.1101821941067391</v>
       </c>
       <c r="D9">
-        <v>0.4304411167262168</v>
+        <v>0.7635005315760697</v>
       </c>
       <c r="E9">
-        <v>0.08493390733218803</v>
+        <v>0.1263172743171913</v>
       </c>
       <c r="F9">
-        <v>0.1063556480784028</v>
+        <v>0</v>
       </c>
       <c r="G9">
-        <v>0.09802889766605188</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -1503,19 +1503,19 @@
         <v>28</v>
       </c>
       <c r="C10">
-        <v>0.5337870602633682</v>
+        <v>0.4768203747314557</v>
       </c>
       <c r="D10">
-        <v>0.2525549026166085</v>
+        <v>0.3037345497587485</v>
       </c>
       <c r="E10">
-        <v>0.1393912851416745</v>
+        <v>0.1460709180147134</v>
       </c>
       <c r="F10">
-        <v>0.05695902476239229</v>
+        <v>0.0733741574950824</v>
       </c>
       <c r="G10">
-        <v>0.0173077272159565</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -1526,19 +1526,19 @@
         <v>28</v>
       </c>
       <c r="C11">
-        <v>0.3287750150324628</v>
+        <v>0.5063949657374379</v>
       </c>
       <c r="D11">
-        <v>0.5242081101445487</v>
+        <v>0.4155669130868364</v>
       </c>
       <c r="E11">
-        <v>0.04803177498858425</v>
+        <v>0</v>
       </c>
       <c r="F11">
-        <v>0.05975679914582763</v>
+        <v>0.03878321840472042</v>
       </c>
       <c r="G11">
-        <v>0.03922830068857657</v>
+        <v>0.03925490277100506</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -1549,16 +1549,16 @@
         <v>28</v>
       </c>
       <c r="C12">
-        <v>0.5928738109452726</v>
+        <v>0.6101954436206178</v>
       </c>
       <c r="D12">
-        <v>0.1980015235867318</v>
+        <v>0.3898045563793823</v>
       </c>
       <c r="E12">
-        <v>0.2006406549106493</v>
+        <v>0</v>
       </c>
       <c r="F12">
-        <v>0.008484010557346435</v>
+        <v>0</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -1572,19 +1572,19 @@
         <v>28</v>
       </c>
       <c r="C13">
-        <v>0.3666693062507451</v>
+        <v>0.4427434746950732</v>
       </c>
       <c r="D13">
-        <v>0.4897918112166131</v>
+        <v>0.3626171356942984</v>
       </c>
       <c r="E13">
-        <v>0.06306542781760054</v>
+        <v>0.1228433650277372</v>
       </c>
       <c r="F13">
-        <v>0.02701275396855353</v>
+        <v>0.0717960245828913</v>
       </c>
       <c r="G13">
-        <v>0.0534607007464878</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/output_validation/01_dimension_percentage.xlsx
+++ b/output_validation/01_dimension_percentage.xlsx
@@ -17,9 +17,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="29">
-  <si>
-    <t>admin1</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="32">
+  <si>
+    <t>admin3</t>
   </si>
   <si>
     <t>pop_group</t>
@@ -40,64 +40,73 @@
     <t>protected environment</t>
   </si>
   <si>
-    <t>MMR001</t>
-  </si>
-  <si>
-    <t>MMR002</t>
-  </si>
-  <si>
-    <t>MMR003</t>
-  </si>
-  <si>
-    <t>MMR004</t>
-  </si>
-  <si>
-    <t>MMR005</t>
-  </si>
-  <si>
-    <t>MMR006</t>
-  </si>
-  <si>
-    <t>MMR007</t>
-  </si>
-  <si>
-    <t>MMR009</t>
-  </si>
-  <si>
-    <t>MMR011</t>
-  </si>
-  <si>
-    <t>MMR012</t>
-  </si>
-  <si>
-    <t>MMR014</t>
-  </si>
-  <si>
-    <t>MMR015</t>
+    <t>MMR009018</t>
+  </si>
+  <si>
+    <t>MMR009020</t>
+  </si>
+  <si>
+    <t>MMR012001</t>
+  </si>
+  <si>
+    <t>MMR012003</t>
+  </si>
+  <si>
+    <t>MMR012005</t>
+  </si>
+  <si>
+    <t>MMR012007</t>
+  </si>
+  <si>
+    <t>MMR012010</t>
+  </si>
+  <si>
+    <t>MMR001001</t>
+  </si>
+  <si>
+    <t>MMR001002</t>
+  </si>
+  <si>
+    <t>MMR001004</t>
+  </si>
+  <si>
+    <t>MMR002005</t>
+  </si>
+  <si>
+    <t>MMR002006</t>
+  </si>
+  <si>
+    <t>MMR002007</t>
   </si>
   <si>
     <t>idp</t>
   </si>
   <si>
+    <t>MMR012004</t>
+  </si>
+  <si>
     <t>ndsp</t>
   </si>
   <si>
-    <t>MMR008</t>
-  </si>
-  <si>
-    <t>MMR010</t>
-  </si>
-  <si>
-    <t>MMR013</t>
-  </si>
-  <si>
-    <t>MMR016</t>
-  </si>
-  <si>
-    <t>MMR017</t>
-  </si>
-  <si>
-    <t>MMR018</t>
+    <t>MMR008003</t>
+  </si>
+  <si>
+    <t>MMR009019</t>
+  </si>
+  <si>
+    <t>MMR012006</t>
+  </si>
+  <si>
+    <t>MMR012011</t>
+  </si>
+  <si>
+    <t>MMR012014</t>
+  </si>
+  <si>
+    <t>MMR012015</t>
+  </si>
+  <si>
+    <t>MMR012016</t>
   </si>
   <si>
     <t>ocap</t>
@@ -461,7 +470,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -495,16 +504,16 @@
         <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C2">
-        <v>0.6986378325573731</v>
+        <v>0.7203196040432472</v>
       </c>
       <c r="D2">
-        <v>0.1309296905708729</v>
+        <v>0.2796803959567528</v>
       </c>
       <c r="E2">
-        <v>0.1704324768717539</v>
+        <v>0</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -518,22 +527,22 @@
         <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C3">
-        <v>0.4671520190982254</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>0.3692581209488021</v>
+        <v>1</v>
       </c>
       <c r="E3">
-        <v>0.06832528739111721</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>0.06704002393403312</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>0.02822454862782223</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -541,22 +550,22 @@
         <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C4">
-        <v>0.5505005570185084</v>
+        <v>0.2686371247226884</v>
       </c>
       <c r="D4">
-        <v>0.1636624726594404</v>
+        <v>0.5716063443351023</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.2858369703220512</v>
+        <v>0</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>0.1597565309422093</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -564,19 +573,19 @@
         <v>10</v>
       </c>
       <c r="B5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C5">
-        <v>0.2362255938995011</v>
+        <v>0</v>
       </c>
       <c r="D5">
-        <v>0.6561160400916122</v>
+        <v>1</v>
       </c>
       <c r="E5">
-        <v>0.04001385067790107</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>0.06764451533098564</v>
+        <v>0</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -587,13 +596,13 @@
         <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C6">
-        <v>0.06043364741733242</v>
+        <v>0</v>
       </c>
       <c r="D6">
-        <v>0.8583608304788509</v>
+        <v>1</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -602,7 +611,7 @@
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0.08120552210381662</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -610,22 +619,22 @@
         <v>12</v>
       </c>
       <c r="B7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C7">
-        <v>0.165981388455387</v>
+        <v>0.5480373400211801</v>
       </c>
       <c r="D7">
-        <v>0.6465252877086792</v>
+        <v>0.18983405326939</v>
       </c>
       <c r="E7">
-        <v>0.09069223491886851</v>
+        <v>0</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0.09680108891706536</v>
+        <v>0.2621286067094298</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -633,16 +642,16 @@
         <v>13</v>
       </c>
       <c r="B8" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C8">
-        <v>0.8382017667306252</v>
+        <v>1</v>
       </c>
       <c r="D8">
-        <v>0.1230474506907969</v>
+        <v>0</v>
       </c>
       <c r="E8">
-        <v>0.03875078257857791</v>
+        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -656,16 +665,16 @@
         <v>14</v>
       </c>
       <c r="B9" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C9">
-        <v>0.3348719340637654</v>
+        <v>0.6986378325573731</v>
       </c>
       <c r="D9">
-        <v>0.5078237190080316</v>
+        <v>0.1309296905708729</v>
       </c>
       <c r="E9">
-        <v>0.1573043469282031</v>
+        <v>0.1704324768717539</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -679,22 +688,22 @@
         <v>15</v>
       </c>
       <c r="B10" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C10">
-        <v>0.5046915229780158</v>
+        <v>0.6986378325573731</v>
       </c>
       <c r="D10">
-        <v>0.3583226586368377</v>
+        <v>0.1309296905708729</v>
       </c>
       <c r="E10">
-        <v>0.08579402118031276</v>
+        <v>0.1704324768717539</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0.05119179720483363</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -702,22 +711,22 @@
         <v>16</v>
       </c>
       <c r="B11" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C11">
-        <v>0.3709017435176196</v>
+        <v>0.6986378325573731</v>
       </c>
       <c r="D11">
-        <v>0.4558409666193095</v>
+        <v>0.1309296905708729</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>0.1704324768717539</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.173257289863071</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -725,22 +734,22 @@
         <v>17</v>
       </c>
       <c r="B12" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C12">
-        <v>0.4017572619326708</v>
+        <v>0.4671520190982254</v>
       </c>
       <c r="D12">
-        <v>0.5532285436928597</v>
+        <v>0.3692581209488021</v>
       </c>
       <c r="E12">
-        <v>0</v>
+        <v>0.06832528739111721</v>
       </c>
       <c r="F12">
-        <v>0.04501419437446964</v>
+        <v>0.06704002393403312</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>0.02822454862782223</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -748,22 +757,45 @@
         <v>18</v>
       </c>
       <c r="B13" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13">
+        <v>0.4671520190982254</v>
+      </c>
+      <c r="D13">
+        <v>0.3692581209488021</v>
+      </c>
+      <c r="E13">
+        <v>0.06832528739111721</v>
+      </c>
+      <c r="F13">
+        <v>0.06704002393403312</v>
+      </c>
+      <c r="G13">
+        <v>0.02822454862782223</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" t="s">
         <v>19</v>
       </c>
-      <c r="C13">
-        <v>0.07542672232317281</v>
-      </c>
-      <c r="D13">
-        <v>0.814760471020971</v>
-      </c>
-      <c r="E13">
-        <v>0</v>
-      </c>
-      <c r="F13">
-        <v>0.05423983172918882</v>
-      </c>
-      <c r="G13">
-        <v>0.05557297492666727</v>
+      <c r="B14" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14">
+        <v>0.4671520190982254</v>
+      </c>
+      <c r="D14">
+        <v>0.3692581209488021</v>
+      </c>
+      <c r="E14">
+        <v>0.06832528739111721</v>
+      </c>
+      <c r="F14">
+        <v>0.06704002393403312</v>
+      </c>
+      <c r="G14">
+        <v>0.02822454862782223</v>
       </c>
     </row>
   </sheetData>
@@ -773,7 +805,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -804,25 +836,140 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C2">
-        <v>0.357012769940906</v>
+        <v>0.2304031860173474</v>
       </c>
       <c r="D2">
-        <v>0.5302458965458244</v>
+        <v>0.4969275497660341</v>
       </c>
       <c r="E2">
-        <v>0.04123246468014508</v>
+        <v>0.09972230641435154</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0.07150886883312446</v>
+        <v>0.1729469578022669</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4">
+        <v>0.7820095700217157</v>
+      </c>
+      <c r="D4">
+        <v>0.2179904299782842</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6">
+        <v>0.233279274036484</v>
+      </c>
+      <c r="D6">
+        <v>0.7667207259635161</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -863,19 +1010,19 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="B2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C2">
-        <v>0.9140697865545047</v>
+        <v>1</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.08593021344549534</v>
+        <v>0</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -886,39 +1033,39 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C3">
-        <v>0.2953518416036127</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>0.6498410644134353</v>
+        <v>1</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.02427884553660607</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>0.03052824844634616</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="B4" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C4">
-        <v>0.6703202566789164</v>
+        <v>0</v>
       </c>
       <c r="D4">
-        <v>0.3296797433210837</v>
+        <v>1</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -932,16 +1079,16 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C5">
-        <v>0.125776487776275</v>
+        <v>0</v>
       </c>
       <c r="D5">
-        <v>0.7550424483963755</v>
+        <v>1</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -950,27 +1097,27 @@
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0.1191810638273496</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C6">
-        <v>0.1225075068689798</v>
+        <v>0</v>
       </c>
       <c r="D6">
-        <v>0.7353966935648635</v>
+        <v>0.6964641341585097</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>0.3035358658414903</v>
       </c>
       <c r="F6">
-        <v>0.1420957995661567</v>
+        <v>0</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -978,22 +1125,22 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C7">
-        <v>0.7256068481815973</v>
+        <v>0</v>
       </c>
       <c r="D7">
-        <v>0.1466791514962011</v>
+        <v>0</v>
       </c>
       <c r="E7">
-        <v>0.05978222136606444</v>
+        <v>0</v>
       </c>
       <c r="F7">
-        <v>0.06793177895613718</v>
+        <v>1</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -1001,33 +1148,33 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="B8" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C8">
-        <v>0.7924190383905769</v>
+        <v>0</v>
       </c>
       <c r="D8">
-        <v>0.1591963593292097</v>
+        <v>0.7177472050214884</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0</v>
+        <v>0.1436473469788677</v>
       </c>
       <c r="G8">
-        <v>0.04838460228021334</v>
+        <v>0.1386054479996439</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="B9" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C9">
         <v>1</v>
@@ -1047,16 +1194,16 @@
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="B10" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C10">
-        <v>0.6777018473264718</v>
+        <v>0.4190776228049733</v>
       </c>
       <c r="D10">
-        <v>0.3222981526735283</v>
+        <v>0.5809223771950267</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1070,22 +1217,22 @@
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B11" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C11">
-        <v>0.8620064665872665</v>
+        <v>0</v>
       </c>
       <c r="D11">
-        <v>0.03800535233232218</v>
+        <v>1</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.0999881810804112</v>
+        <v>0</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -1093,19 +1240,19 @@
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="B12" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C12">
-        <v>0.7715321758342893</v>
+        <v>0.3864325710142018</v>
       </c>
       <c r="D12">
-        <v>0.1457899511717343</v>
+        <v>0.6135674289857982</v>
       </c>
       <c r="E12">
-        <v>0.08267787299397636</v>
+        <v>0</v>
       </c>
       <c r="F12">
         <v>0</v>
@@ -1116,42 +1263,42 @@
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="B13" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C13">
-        <v>0.2976141001389314</v>
+        <v>1</v>
       </c>
       <c r="D13">
-        <v>0.5415142694385218</v>
+        <v>0</v>
       </c>
       <c r="E13">
-        <v>0.03738545073187088</v>
+        <v>0</v>
       </c>
       <c r="F13">
-        <v>0.07872141083747253</v>
+        <v>0</v>
       </c>
       <c r="G13">
-        <v>0.0447647688532033</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C14">
-        <v>0.5554147187463672</v>
+        <v>0.9140697865545047</v>
       </c>
       <c r="D14">
-        <v>0.4041575688726384</v>
+        <v>0</v>
       </c>
       <c r="E14">
-        <v>0.04042771238099447</v>
+        <v>0.08593021344549534</v>
       </c>
       <c r="F14">
         <v>0</v>
@@ -1162,22 +1309,22 @@
     </row>
     <row r="15" spans="1:7">
       <c r="A15" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C15">
-        <v>0.8804077503986378</v>
+        <v>0.9140697865545047</v>
       </c>
       <c r="D15">
-        <v>0.07767477008235714</v>
+        <v>0</v>
       </c>
       <c r="E15">
-        <v>0</v>
+        <v>0.08593021344549534</v>
       </c>
       <c r="F15">
-        <v>0.04191747951900504</v>
+        <v>0</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -1185,22 +1332,22 @@
     </row>
     <row r="16" spans="1:7">
       <c r="A16" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C16">
-        <v>0.6968263533264397</v>
+        <v>0.9140697865545047</v>
       </c>
       <c r="D16">
-        <v>0.1713318713277054</v>
+        <v>0</v>
       </c>
       <c r="E16">
-        <v>0</v>
+        <v>0.08593021344549534</v>
       </c>
       <c r="F16">
-        <v>0.1318417753458549</v>
+        <v>0</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -1208,71 +1355,71 @@
     </row>
     <row r="17" spans="1:7">
       <c r="A17" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C17">
-        <v>0.9310762092269746</v>
+        <v>0.2953518416036127</v>
       </c>
       <c r="D17">
-        <v>0.06892379077302539</v>
+        <v>0.6498410644134353</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0</v>
+        <v>0.02427884553660607</v>
       </c>
       <c r="G17">
-        <v>0</v>
+        <v>0.03052824844634616</v>
       </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C18">
-        <v>1</v>
+        <v>0.2953518416036127</v>
       </c>
       <c r="D18">
-        <v>0</v>
+        <v>0.6498410644134353</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0</v>
+        <v>0.02427884553660607</v>
       </c>
       <c r="G18">
-        <v>0</v>
+        <v>0.03052824844634616</v>
       </c>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="B19" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C19">
-        <v>0.7262436922562635</v>
+        <v>0.2953518416036127</v>
       </c>
       <c r="D19">
-        <v>0.2737563077437364</v>
+        <v>0.6498410644134353</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0</v>
+        <v>0.02427884553660607</v>
       </c>
       <c r="G19">
-        <v>0</v>
+        <v>0.03052824844634616</v>
       </c>
     </row>
   </sheetData>
@@ -1282,7 +1429,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1313,16 +1460,16 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="B2" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C2">
-        <v>0.5697812081955935</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>0.4302187918044066</v>
+        <v>1</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -1339,22 +1486,22 @@
         <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C3">
-        <v>0.112582448398471</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>0.6702858318735401</v>
+        <v>1</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.1882078456420022</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>0.02892387408598686</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -1362,22 +1509,22 @@
         <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C4">
-        <v>0.7742993638732156</v>
+        <v>0.4958472855812806</v>
       </c>
       <c r="D4">
-        <v>0.1103130534377048</v>
+        <v>0.2016356958596897</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.1153875826890797</v>
+        <v>0</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>0.3025170185590298</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -1385,36 +1532,36 @@
         <v>10</v>
       </c>
       <c r="B5" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C5">
-        <v>0.4535007307593025</v>
+        <v>0</v>
       </c>
       <c r="D5">
-        <v>0.4693465799928333</v>
+        <v>1</v>
       </c>
       <c r="E5">
-        <v>0.03657992377119496</v>
+        <v>0</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0.0405727654766691</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C6">
-        <v>0.05932678460569384</v>
+        <v>0.8405128819480061</v>
       </c>
       <c r="D6">
-        <v>0.9406732153943062</v>
+        <v>0.1594871180519939</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -1428,22 +1575,22 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C7">
-        <v>0.4111018004330445</v>
+        <v>0.5079094701116023</v>
       </c>
       <c r="D7">
-        <v>0.2813629377676347</v>
+        <v>0</v>
       </c>
       <c r="E7">
-        <v>0.3075352617993207</v>
+        <v>0</v>
       </c>
       <c r="F7">
-        <v>0</v>
+        <v>0.4920905298883979</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -1451,22 +1598,22 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="B8" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C8">
-        <v>0.6174902311128901</v>
+        <v>0.5648647401941971</v>
       </c>
       <c r="D8">
-        <v>0.2116649462009311</v>
+        <v>0.4351352598058029</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.1708448226861786</v>
+        <v>0</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -1474,19 +1621,19 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="B9" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C9">
-        <v>0.1101821941067391</v>
+        <v>0.5514290487937468</v>
       </c>
       <c r="D9">
-        <v>0.7635005315760697</v>
+        <v>0.4485709512062533</v>
       </c>
       <c r="E9">
-        <v>0.1263172743171913</v>
+        <v>0</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -1497,22 +1644,22 @@
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B10" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C10">
-        <v>0.4768203747314557</v>
+        <v>0.5697812081955935</v>
       </c>
       <c r="D10">
-        <v>0.3037345497587485</v>
+        <v>0.4302187918044066</v>
       </c>
       <c r="E10">
-        <v>0.1460709180147134</v>
+        <v>0</v>
       </c>
       <c r="F10">
-        <v>0.0733741574950824</v>
+        <v>0</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -1520,39 +1667,39 @@
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B11" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C11">
-        <v>0.5063949657374379</v>
+        <v>0.5697812081955935</v>
       </c>
       <c r="D11">
-        <v>0.4155669130868364</v>
+        <v>0.4302187918044066</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.03878321840472042</v>
+        <v>0</v>
       </c>
       <c r="G11">
-        <v>0.03925490277100506</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B12" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C12">
-        <v>0.6101954436206178</v>
+        <v>0.5697812081955935</v>
       </c>
       <c r="D12">
-        <v>0.3898045563793823</v>
+        <v>0.4302187918044066</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1566,25 +1713,71 @@
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" t="s">
+        <v>31</v>
+      </c>
+      <c r="C13">
+        <v>0.112582448398471</v>
+      </c>
+      <c r="D13">
+        <v>0.6702858318735401</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>0.1882078456420022</v>
+      </c>
+      <c r="G13">
+        <v>0.02892387408598686</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" t="s">
         <v>18</v>
       </c>
-      <c r="B13" t="s">
-        <v>28</v>
-      </c>
-      <c r="C13">
-        <v>0.4427434746950732</v>
-      </c>
-      <c r="D13">
-        <v>0.3626171356942984</v>
-      </c>
-      <c r="E13">
-        <v>0.1228433650277372</v>
-      </c>
-      <c r="F13">
-        <v>0.0717960245828913</v>
-      </c>
-      <c r="G13">
-        <v>0</v>
+      <c r="B14" t="s">
+        <v>31</v>
+      </c>
+      <c r="C14">
+        <v>0.112582448398471</v>
+      </c>
+      <c r="D14">
+        <v>0.6702858318735401</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>0.1882078456420022</v>
+      </c>
+      <c r="G14">
+        <v>0.02892387408598686</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" t="s">
+        <v>31</v>
+      </c>
+      <c r="C15">
+        <v>0.112582448398471</v>
+      </c>
+      <c r="D15">
+        <v>0.6702858318735401</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0.1882078456420022</v>
+      </c>
+      <c r="G15">
+        <v>0.02892387408598686</v>
       </c>
     </row>
   </sheetData>

--- a/output_validation/01_dimension_percentage.xlsx
+++ b/output_validation/01_dimension_percentage.xlsx
@@ -17,9 +17,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="32">
-  <si>
-    <t>admin3</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="29">
+  <si>
+    <t>admin1</t>
   </si>
   <si>
     <t>pop_group</t>
@@ -40,73 +40,64 @@
     <t>protected environment</t>
   </si>
   <si>
-    <t>MMR009018</t>
-  </si>
-  <si>
-    <t>MMR009020</t>
-  </si>
-  <si>
-    <t>MMR012001</t>
-  </si>
-  <si>
-    <t>MMR012003</t>
-  </si>
-  <si>
-    <t>MMR012005</t>
-  </si>
-  <si>
-    <t>MMR012007</t>
-  </si>
-  <si>
-    <t>MMR012010</t>
-  </si>
-  <si>
-    <t>MMR001001</t>
-  </si>
-  <si>
-    <t>MMR001002</t>
-  </si>
-  <si>
-    <t>MMR001004</t>
-  </si>
-  <si>
-    <t>MMR002005</t>
-  </si>
-  <si>
-    <t>MMR002006</t>
-  </si>
-  <si>
-    <t>MMR002007</t>
+    <t>MMR001</t>
+  </si>
+  <si>
+    <t>MMR002</t>
+  </si>
+  <si>
+    <t>MMR003</t>
+  </si>
+  <si>
+    <t>MMR004</t>
+  </si>
+  <si>
+    <t>MMR005</t>
+  </si>
+  <si>
+    <t>MMR006</t>
+  </si>
+  <si>
+    <t>MMR007</t>
+  </si>
+  <si>
+    <t>MMR009</t>
+  </si>
+  <si>
+    <t>MMR011</t>
+  </si>
+  <si>
+    <t>MMR012</t>
+  </si>
+  <si>
+    <t>MMR014</t>
+  </si>
+  <si>
+    <t>MMR015</t>
   </si>
   <si>
     <t>idp</t>
   </si>
   <si>
-    <t>MMR012004</t>
-  </si>
-  <si>
     <t>ndsp</t>
   </si>
   <si>
-    <t>MMR008003</t>
-  </si>
-  <si>
-    <t>MMR009019</t>
-  </si>
-  <si>
-    <t>MMR012006</t>
-  </si>
-  <si>
-    <t>MMR012011</t>
-  </si>
-  <si>
-    <t>MMR012014</t>
-  </si>
-  <si>
-    <t>MMR012015</t>
-  </si>
-  <si>
-    <t>MMR012016</t>
+    <t>MMR008</t>
+  </si>
+  <si>
+    <t>MMR010</t>
+  </si>
+  <si>
+    <t>MMR013</t>
+  </si>
+  <si>
+    <t>MMR016</t>
+  </si>
+  <si>
+    <t>MMR017</t>
+  </si>
+  <si>
+    <t>MMR018</t>
   </si>
   <si>
     <t>ocap</t>
@@ -470,7 +461,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G14"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -504,19 +495,19 @@
         <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C2">
-        <v>0.7203196040432472</v>
+        <v>0.7106540107189164</v>
       </c>
       <c r="D2">
-        <v>0.2796803959567528</v>
+        <v>0.190710457186663</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>0.09531458339445195</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>0.00332094869996863</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -527,22 +518,22 @@
         <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>0.3290499252879424</v>
       </c>
       <c r="D3">
-        <v>1</v>
+        <v>0.4673340598861581</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>0.02351335102101421</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>0.1363377937635117</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>0.0437648700413738</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -550,22 +541,22 @@
         <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C4">
-        <v>0.2686371247226884</v>
+        <v>0.451490579415013</v>
       </c>
       <c r="D4">
-        <v>0.5716063443351023</v>
+        <v>0.3029933244222449</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>0.02115781288198968</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>0.1668594842488218</v>
       </c>
       <c r="G4">
-        <v>0.1597565309422093</v>
+        <v>0.05749879903193069</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -573,22 +564,22 @@
         <v>10</v>
       </c>
       <c r="B5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>0.2418234127364369</v>
       </c>
       <c r="D5">
-        <v>1</v>
+        <v>0.6520581443625028</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>0.01366262932702547</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>0.07739927371974965</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>0.01505653985428526</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -596,22 +587,22 @@
         <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>0.03115927001577109</v>
       </c>
       <c r="D6">
-        <v>1</v>
+        <v>0.8414055018184412</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>0.006066203886073819</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>0.01720586734079309</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>0.1041631569389209</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -619,22 +610,22 @@
         <v>12</v>
       </c>
       <c r="B7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C7">
-        <v>0.5480373400211801</v>
+        <v>0.3453075914522154</v>
       </c>
       <c r="D7">
-        <v>0.18983405326939</v>
+        <v>0.5532912991791453</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>0.02136518339723263</v>
       </c>
       <c r="F7">
-        <v>0</v>
+        <v>0.01254642344682841</v>
       </c>
       <c r="G7">
-        <v>0.2621286067094298</v>
+        <v>0.06748950252457825</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -642,22 +633,22 @@
         <v>13</v>
       </c>
       <c r="B8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C8">
-        <v>1</v>
+        <v>0.6672571779664611</v>
       </c>
       <c r="D8">
-        <v>0</v>
+        <v>0.2367263812424759</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>0.06125870664438033</v>
       </c>
       <c r="F8">
-        <v>0</v>
+        <v>0.02324762293162015</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>0.01151011121506259</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -665,22 +656,22 @@
         <v>14</v>
       </c>
       <c r="B9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C9">
-        <v>0.6986378325573731</v>
+        <v>0.4300183427740319</v>
       </c>
       <c r="D9">
-        <v>0.1309296905708729</v>
+        <v>0.4386203619332983</v>
       </c>
       <c r="E9">
-        <v>0.1704324768717539</v>
+        <v>0.06879676346048313</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>0.06256453183218642</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -688,22 +679,22 @@
         <v>15</v>
       </c>
       <c r="B10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C10">
-        <v>0.6986378325573731</v>
+        <v>0.503759477991108</v>
       </c>
       <c r="D10">
-        <v>0.1309296905708729</v>
+        <v>0.270105571906739</v>
       </c>
       <c r="E10">
-        <v>0.1704324768717539</v>
+        <v>0.06386966279094733</v>
       </c>
       <c r="F10">
-        <v>0</v>
+        <v>0.05680002453431085</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>0.1054652627768949</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -711,22 +702,22 @@
         <v>16</v>
       </c>
       <c r="B11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C11">
-        <v>0.6986378325573731</v>
+        <v>0.3042856291533364</v>
       </c>
       <c r="D11">
-        <v>0.1309296905708729</v>
+        <v>0.5100784972268301</v>
       </c>
       <c r="E11">
-        <v>0.1704324768717539</v>
+        <v>0.005852934652471125</v>
       </c>
       <c r="F11">
-        <v>0</v>
+        <v>0.02119727645262988</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>0.1585856625147326</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -734,22 +725,22 @@
         <v>17</v>
       </c>
       <c r="B12" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C12">
-        <v>0.4671520190982254</v>
+        <v>0.5351307850709578</v>
       </c>
       <c r="D12">
-        <v>0.3692581209488021</v>
+        <v>0.4023060687369476</v>
       </c>
       <c r="E12">
-        <v>0.06832528739111721</v>
+        <v>0.03702069958023028</v>
       </c>
       <c r="F12">
-        <v>0.06704002393403312</v>
+        <v>0.0255424466118643</v>
       </c>
       <c r="G12">
-        <v>0.02822454862782223</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -757,45 +748,22 @@
         <v>18</v>
       </c>
       <c r="B13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C13">
-        <v>0.4671520190982254</v>
+        <v>0.1606215520728562</v>
       </c>
       <c r="D13">
-        <v>0.3692581209488021</v>
+        <v>0.780119179566651</v>
       </c>
       <c r="E13">
-        <v>0.06832528739111721</v>
+        <v>0.02185734521386637</v>
       </c>
       <c r="F13">
-        <v>0.06704002393403312</v>
+        <v>0.03031483260684526</v>
       </c>
       <c r="G13">
-        <v>0.02822454862782223</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14" t="s">
-        <v>19</v>
-      </c>
-      <c r="B14" t="s">
-        <v>20</v>
-      </c>
-      <c r="C14">
-        <v>0.4671520190982254</v>
-      </c>
-      <c r="D14">
-        <v>0.3692581209488021</v>
-      </c>
-      <c r="E14">
-        <v>0.06832528739111721</v>
-      </c>
-      <c r="F14">
-        <v>0.06704002393403312</v>
-      </c>
-      <c r="G14">
-        <v>0.02822454862782223</v>
+        <v>0.007087090539781185</v>
       </c>
     </row>
   </sheetData>
@@ -805,7 +773,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -836,140 +804,25 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C2">
-        <v>0.2304031860173474</v>
+        <v>0.3202038642640018</v>
       </c>
       <c r="D2">
-        <v>0.4969275497660341</v>
+        <v>0.5997279723345624</v>
       </c>
       <c r="E2">
-        <v>0.09972230641435154</v>
+        <v>0.01887686599956911</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>0.009269706648321113</v>
       </c>
       <c r="G2">
-        <v>0.1729469578022669</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="D3">
-        <v>1</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C4">
-        <v>0.7820095700217157</v>
-      </c>
-      <c r="D4">
-        <v>0.2179904299782842</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="D5">
-        <v>1</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6">
-        <v>0.233279274036484</v>
-      </c>
-      <c r="D6">
-        <v>0.7667207259635161</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
-      </c>
-      <c r="G7">
-        <v>0</v>
+        <v>0.05192159075354553</v>
       </c>
     </row>
   </sheetData>
@@ -1010,137 +863,137 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>0.7355010475254173</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>0.2246645324560284</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>0.02317121176486182</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>0.01006463778453275</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>0.006598570469159679</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>0.2881114296960966</v>
       </c>
       <c r="D3">
-        <v>1</v>
+        <v>0.6370232145138697</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>0.003355230387105165</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>0.03677214735238916</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>0.0347379780505395</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>0.542864226316311</v>
       </c>
       <c r="D4">
-        <v>1</v>
+        <v>0.3836873839858633</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>0.04386467216042554</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>0.0139614044321047</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>0.01562231310529551</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B5" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>0.2957402131124322</v>
       </c>
       <c r="D5">
-        <v>1</v>
+        <v>0.6475361562386643</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>0.02662675445858609</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>0.01034372974580771</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>0.0197531464445096</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>0.2168995155835067</v>
       </c>
       <c r="D6">
-        <v>0.6964641341585097</v>
+        <v>0.7067734103739008</v>
       </c>
       <c r="E6">
-        <v>0.3035358658414903</v>
+        <v>0.0479594500977146</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>0.02380464262637988</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>0.004562981318497784</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="B7" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C7">
-        <v>0</v>
+        <v>0.7255237755561456</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>0.2031253855922261</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>0.03740669864710201</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0.0339441402045264</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -1148,45 +1001,45 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="B8" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C8">
-        <v>0</v>
+        <v>0.7749837497270198</v>
       </c>
       <c r="D8">
-        <v>0.7177472050214884</v>
+        <v>0.2011021168930733</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>0.01010426870802466</v>
       </c>
       <c r="F8">
-        <v>0.1436473469788677</v>
+        <v>0.008707118220853691</v>
       </c>
       <c r="G8">
-        <v>0.1386054479996439</v>
+        <v>0.005102746451028845</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C9">
-        <v>1</v>
+        <v>0.7567306197548092</v>
       </c>
       <c r="D9">
-        <v>0</v>
+        <v>0.1048223149121534</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>0.07569739695083222</v>
       </c>
       <c r="F9">
-        <v>0</v>
+        <v>0.06274966838220511</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -1194,19 +1047,19 @@
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="B10" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C10">
-        <v>0.4190776228049733</v>
+        <v>0.7815722567773472</v>
       </c>
       <c r="D10">
-        <v>0.5809223771950267</v>
+        <v>0.2048177817451928</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>0.0136099614774599</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -1217,114 +1070,114 @@
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B11" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C11">
-        <v>0</v>
+        <v>0.7738342948998559</v>
       </c>
       <c r="D11">
-        <v>1</v>
+        <v>0.1046527264059715</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>0.03543814744568882</v>
       </c>
       <c r="F11">
-        <v>0</v>
+        <v>0.0788805680596739</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>0.007194263188809723</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="B12" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C12">
-        <v>0.3864325710142018</v>
+        <v>0.6759834838293406</v>
       </c>
       <c r="D12">
-        <v>0.6135674289857982</v>
+        <v>0.1111364861551428</v>
       </c>
       <c r="E12">
-        <v>0</v>
+        <v>0.07403526563460644</v>
       </c>
       <c r="F12">
-        <v>0</v>
+        <v>0.04505024459947984</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>0.0937945197814303</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="B13" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C13">
-        <v>1</v>
+        <v>0.4619138320502865</v>
       </c>
       <c r="D13">
-        <v>0</v>
+        <v>0.403750898051613</v>
       </c>
       <c r="E13">
-        <v>0</v>
+        <v>0.01966706479867863</v>
       </c>
       <c r="F13">
-        <v>0</v>
+        <v>0.07811591978181062</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>0.03655228531761142</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="B14" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C14">
-        <v>0.9140697865545047</v>
+        <v>0.6577904324554799</v>
       </c>
       <c r="D14">
-        <v>0</v>
+        <v>0.2580592382461159</v>
       </c>
       <c r="E14">
-        <v>0.08593021344549534</v>
+        <v>0.07780282150174837</v>
       </c>
       <c r="F14">
-        <v>0</v>
+        <v>0.002059391714946343</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>0.004288116081709648</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B15" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C15">
-        <v>0.9140697865545047</v>
+        <v>0.8174822877535954</v>
       </c>
       <c r="D15">
-        <v>0</v>
+        <v>0.07499063577569208</v>
       </c>
       <c r="E15">
-        <v>0.08593021344549534</v>
+        <v>0.04406802745667497</v>
       </c>
       <c r="F15">
-        <v>0</v>
+        <v>0.06345904901403755</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -1332,94 +1185,94 @@
     </row>
     <row r="16" spans="1:7">
       <c r="A16" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B16" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C16">
-        <v>0.9140697865545047</v>
+        <v>0.538121125714962</v>
       </c>
       <c r="D16">
-        <v>0</v>
+        <v>0.3438485809116489</v>
       </c>
       <c r="E16">
-        <v>0.08593021344549534</v>
+        <v>0.05173825925298021</v>
       </c>
       <c r="F16">
-        <v>0</v>
+        <v>0.05389118409563317</v>
       </c>
       <c r="G16">
-        <v>0</v>
+        <v>0.01240085002477574</v>
       </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="B17" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C17">
-        <v>0.2953518416036127</v>
+        <v>0.8548534137558078</v>
       </c>
       <c r="D17">
-        <v>0.6498410644134353</v>
+        <v>0.1094267861545242</v>
       </c>
       <c r="E17">
-        <v>0</v>
+        <v>0.03571980008966798</v>
       </c>
       <c r="F17">
-        <v>0.02427884553660607</v>
+        <v>0</v>
       </c>
       <c r="G17">
-        <v>0.03052824844634616</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="B18" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C18">
-        <v>0.2953518416036127</v>
+        <v>0.9248139239710328</v>
       </c>
       <c r="D18">
-        <v>0.6498410644134353</v>
+        <v>0.03634751776327397</v>
       </c>
       <c r="E18">
-        <v>0</v>
+        <v>0.03292999288485467</v>
       </c>
       <c r="F18">
-        <v>0.02427884553660607</v>
+        <v>0</v>
       </c>
       <c r="G18">
-        <v>0.03052824844634616</v>
+        <v>0.005908565380838581</v>
       </c>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="B19" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C19">
-        <v>0.2953518416036127</v>
+        <v>0.87123704802994</v>
       </c>
       <c r="D19">
-        <v>0.6498410644134353</v>
+        <v>0.08039684079360003</v>
       </c>
       <c r="E19">
-        <v>0</v>
+        <v>0.04347052377995093</v>
       </c>
       <c r="F19">
-        <v>0.02427884553660607</v>
+        <v>0.004895587396509143</v>
       </c>
       <c r="G19">
-        <v>0.03052824844634616</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1429,7 +1282,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G15"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1460,22 +1313,22 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>0.5993405930558748</v>
       </c>
       <c r="D2">
-        <v>1</v>
+        <v>0.3461159896987495</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>0.03700134904572487</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>0.01754206819965072</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -1486,22 +1339,22 @@
         <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>0.1643234671516556</v>
       </c>
       <c r="D3">
-        <v>1</v>
+        <v>0.5363990822578679</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>0.01688281685020779</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>0.1905420565106229</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>0.09185257722964593</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -1509,22 +1362,22 @@
         <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C4">
-        <v>0.4958472855812806</v>
+        <v>0.4917716660792544</v>
       </c>
       <c r="D4">
-        <v>0.2016356958596897</v>
+        <v>0.4861326132088599</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>0.01567743048028169</v>
       </c>
       <c r="G4">
-        <v>0.3025170185590298</v>
+        <v>0.006418290231603985</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -1532,42 +1385,42 @@
         <v>10</v>
       </c>
       <c r="B5" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>0.4068563174242846</v>
       </c>
       <c r="D5">
-        <v>1</v>
+        <v>0.5296564849408226</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>0.03816465636136621</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>0.01414738013903636</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>0.01117516113449035</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C6">
-        <v>0.8405128819480061</v>
+        <v>0.07562392814612101</v>
       </c>
       <c r="D6">
-        <v>0.1594871180519939</v>
+        <v>0.9193078839006363</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>0.005068187953242716</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -1575,22 +1428,22 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B7" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C7">
-        <v>0.5079094701116023</v>
+        <v>0.5497172552716943</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>0.3892670239583827</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>0.06101572076992296</v>
       </c>
       <c r="F7">
-        <v>0.4920905298883979</v>
+        <v>0</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -1598,22 +1451,22 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="B8" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C8">
-        <v>0.5648647401941971</v>
+        <v>0.4732055462978784</v>
       </c>
       <c r="D8">
-        <v>0.4351352598058029</v>
+        <v>0.4160086106878902</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>0.0432878883621454</v>
       </c>
       <c r="F8">
-        <v>0</v>
+        <v>0.06749795465208604</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -1621,91 +1474,91 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="B9" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C9">
-        <v>0.5514290487937468</v>
+        <v>0.2802404301971403</v>
       </c>
       <c r="D9">
-        <v>0.4485709512062533</v>
+        <v>0.4304411167262168</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>0.08493390733218803</v>
       </c>
       <c r="F9">
-        <v>0</v>
+        <v>0.1063556480784028</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>0.09802889766605188</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B10" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C10">
-        <v>0.5697812081955935</v>
+        <v>0.5337870602633682</v>
       </c>
       <c r="D10">
-        <v>0.4302187918044066</v>
+        <v>0.2525549026166085</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>0.1393912851416745</v>
       </c>
       <c r="F10">
-        <v>0</v>
+        <v>0.05695902476239229</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>0.0173077272159565</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B11" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C11">
-        <v>0.5697812081955935</v>
+        <v>0.3287750150324628</v>
       </c>
       <c r="D11">
-        <v>0.4302187918044066</v>
+        <v>0.5242081101445487</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>0.04803177498858425</v>
       </c>
       <c r="F11">
-        <v>0</v>
+        <v>0.05975679914582763</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>0.03922830068857657</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B12" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C12">
-        <v>0.5697812081955935</v>
+        <v>0.5928738109452726</v>
       </c>
       <c r="D12">
-        <v>0.4302187918044066</v>
+        <v>0.1980015235867318</v>
       </c>
       <c r="E12">
-        <v>0</v>
+        <v>0.2006406549106493</v>
       </c>
       <c r="F12">
-        <v>0</v>
+        <v>0.008484010557346435</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -1713,71 +1566,25 @@
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B13" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C13">
-        <v>0.112582448398471</v>
+        <v>0.3666693062507451</v>
       </c>
       <c r="D13">
-        <v>0.6702858318735401</v>
+        <v>0.4897918112166131</v>
       </c>
       <c r="E13">
-        <v>0</v>
+        <v>0.06306542781760054</v>
       </c>
       <c r="F13">
-        <v>0.1882078456420022</v>
+        <v>0.02701275396855353</v>
       </c>
       <c r="G13">
-        <v>0.02892387408598686</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14" t="s">
-        <v>18</v>
-      </c>
-      <c r="B14" t="s">
-        <v>31</v>
-      </c>
-      <c r="C14">
-        <v>0.112582448398471</v>
-      </c>
-      <c r="D14">
-        <v>0.6702858318735401</v>
-      </c>
-      <c r="E14">
-        <v>0</v>
-      </c>
-      <c r="F14">
-        <v>0.1882078456420022</v>
-      </c>
-      <c r="G14">
-        <v>0.02892387408598686</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15" t="s">
-        <v>19</v>
-      </c>
-      <c r="B15" t="s">
-        <v>31</v>
-      </c>
-      <c r="C15">
-        <v>0.112582448398471</v>
-      </c>
-      <c r="D15">
-        <v>0.6702858318735401</v>
-      </c>
-      <c r="E15">
-        <v>0</v>
-      </c>
-      <c r="F15">
-        <v>0.1882078456420022</v>
-      </c>
-      <c r="G15">
-        <v>0.02892387408598686</v>
+        <v>0.0534607007464878</v>
       </c>
     </row>
   </sheetData>
